--- a/Statistics_of_@elenabravoarche.xlsx
+++ b/Statistics_of_@elenabravoarche.xlsx
@@ -407,7 +407,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>30823</v>
+        <v>30824</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -439,7 +439,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>83.98637602179836</v>
+        <v>83.9891008174387</v>
       </c>
     </row>
     <row r="9" spans="1:2">
